--- a/data/2020-04-07/SCW - Weekly Competition - 2020-04-07.xlsx
+++ b/data/2020-04-07/SCW - Weekly Competition - 2020-04-07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-04-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35451D5-8E74-4C7C-BBB4-AF13FEBB024E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F023CAF-3270-4F8D-B94A-BA42E0848379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -223,9 +223,6 @@
     <t>https://www.facebook.com/events/510082903229069/permalink/511045453132814/</t>
   </si>
   <si>
-    <t>장준호</t>
-  </si>
-  <si>
     <t>1:06.79</t>
   </si>
   <si>
@@ -374,6 +371,9 @@
   </si>
   <si>
     <t>&lt;30</t>
+  </si>
+  <si>
+    <t>Jang Junho (장준호)</t>
   </si>
 </sst>
 </file>
@@ -998,8 +998,8 @@
   </sheetPr>
   <dimension ref="A1:AG1110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1210,7 +1210,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="24">
         <v>17.739999999999998</v>
@@ -1266,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>49</v>
@@ -1294,7 +1294,7 @@
         <v>18.27</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" s="36"/>
       <c r="N7" s="36"/>
@@ -1335,7 +1335,7 @@
         <v>14.77</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="27">
         <v>14.77</v>
@@ -1353,7 +1353,7 @@
         <v>18.010000000000002</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
@@ -1391,7 +1391,7 @@
         <v>17.61</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
@@ -1401,10 +1401,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="D10" s="27">
         <v>18.72</v>
@@ -1429,7 +1429,7 @@
         <v>18.12</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
@@ -1467,7 +1467,7 @@
         <v>17.489999999999998</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
@@ -1504,7 +1504,7 @@
         <v>20.07</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
@@ -1514,7 +1514,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>21</v>
@@ -1544,7 +1544,7 @@
         <v>22.96</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
@@ -1554,7 +1554,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>35</v>
@@ -1581,7 +1581,7 @@
         <v>20.309999999999999</v>
       </c>
       <c r="L14" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="12.75">
@@ -1616,7 +1616,7 @@
         <v>23.02</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="14.25">
@@ -1654,7 +1654,7 @@
         <v>24.85</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
@@ -1664,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>21</v>
@@ -1692,7 +1692,7 @@
         <v>24.73</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
@@ -1702,7 +1702,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>49</v>
@@ -1730,7 +1730,7 @@
         <v>26</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
@@ -1740,7 +1740,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>49</v>
@@ -1770,7 +1770,7 @@
         <v>27.41</v>
       </c>
       <c r="L19" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M19" s="68"/>
       <c r="N19" s="68"/>
@@ -1799,7 +1799,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>21</v>
@@ -1827,7 +1827,7 @@
         <v>30.36</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M20" s="68"/>
       <c r="N20" s="68"/>
@@ -1856,7 +1856,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>21</v>
@@ -1884,7 +1884,7 @@
         <v>29.33</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
@@ -1894,7 +1894,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>21</v>
@@ -1922,7 +1922,7 @@
         <v>47.08</v>
       </c>
       <c r="L22" s="73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M22" s="68"/>
       <c r="N22" s="68"/>
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>49</v>
@@ -1981,7 +1981,7 @@
         <v>31.66</v>
       </c>
       <c r="L23" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M23" s="68"/>
       <c r="N23" s="68"/>
@@ -15230,7 +15230,7 @@
   <dimension ref="A1:M1061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15541,13 +15541,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="26">
         <v>59.25</v>
@@ -15557,19 +15557,19 @@
         <v>59.25</v>
       </c>
       <c r="H10" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="J10" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="K10" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="L10" s="31" t="s">
         <v>71</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>72</v>
       </c>
       <c r="M10" s="37"/>
     </row>
@@ -15606,10 +15606,10 @@
         <v>26</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
@@ -24303,7 +24303,7 @@
   </sheetPr>
   <dimension ref="A1:K1053"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -33095,7 +33095,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>4</v>
@@ -33124,16 +33124,16 @@
         <v>7</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="85" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="87" t="s">
         <v>105</v>
-      </c>
-      <c r="G3" s="87" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -33151,7 +33151,7 @@
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
@@ -33168,7 +33168,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -33176,7 +33176,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="78" t="s">
         <v>49</v>
@@ -33186,7 +33186,7 @@
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -33194,7 +33194,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="78" t="s">
         <v>62</v>
@@ -33204,7 +33204,7 @@
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -33212,7 +33212,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="78" t="s">
         <v>49</v>
@@ -33222,7 +33222,7 @@
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -33230,7 +33230,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="78" t="s">
         <v>62</v>
@@ -33240,7 +33240,7 @@
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">
